--- a/Recycling/SG2/SG2_Avg.xlsx
+++ b/Recycling/SG2/SG2_Avg.xlsx
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0956068963413589</v>
+        <v>0.08759757599270024</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003754331022833126</v>
+        <v>0.007408249922146522</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -1133,7 +1133,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09561352301887632</v>
+        <v>0.08754873131581878</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003751307877152027</v>
+        <v>0.007430533272071201</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -1345,10 +1345,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1033831551739989</v>
+        <v>0.1027610456816129</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002067367354733251</v>
+        <v>0.0004905482866059986</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -1569,7 +1569,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1033040375466656</v>
+        <v>0.1025746396042172</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000242830858469704</v>
+        <v>0.0005755882974300188</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1032223370978804</v>
+        <v>0.1023825584253616</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002801032862043165</v>
+        <v>0.0006632173369827394</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -1990,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -2005,7 +2005,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1031404121976162</v>
+        <v>0.1021903667013108</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003174781105799697</v>
+        <v>0.0007508968081776226</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1030600412599428</v>
+        <v>0.10200222509824</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003541440042309454</v>
+        <v>0.0008367285803232597</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1029825025046847</v>
+        <v>0.1018210919880862</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003895178325875897</v>
+        <v>0.0009193630194106455</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2656,10 +2656,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.102908652535993</v>
+        <v>0.1016489206395906</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004232088056751661</v>
+        <v>0.0009979090279110731</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.102838973785852</v>
+        <v>0.1014867813172858</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000454996833989374</v>
+        <v>0.001071878342197595</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1027735249691405</v>
+        <v>0.1013347559368562</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000484855131311656</v>
+        <v>0.001141233591650181</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -3298,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -3313,7 +3313,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1027116155309993</v>
+        <v>0.1011911929132764</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005130987345417358</v>
+        <v>0.001206728243164345</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -3743,13 +3743,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1026507254956192</v>
+        <v>0.1010502218032473</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005408772777102044</v>
+        <v>0.001271040442048836</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -3964,7 +3964,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1025834565464982</v>
+        <v>0.1008947445661934</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005715659346536454</v>
+        <v>0.001341970457350267</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -4185,7 +4185,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1024896179838874</v>
+        <v>0.10067831594271</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000614375871387593</v>
+        <v>0.001440707004681763</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -4400,7 +4400,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999999</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1023178175669099</v>
+        <v>0.1002834544261705</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0006927526578285342</v>
+        <v>0.001620846129487367</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -4606,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -4618,10 +4618,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1019637086038364</v>
+        <v>0.09947515667514692</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0008543001270600695</v>
+        <v>0.001989598320705715</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -4833,13 +4833,13 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1014502407666362</v>
+        <v>0.09831625466741731</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001088548446875326</v>
+        <v>0.002518299104812155</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351603</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1015955288235896</v>
+        <v>0.09864251812941788</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001022266820715221</v>
+        <v>0.002369454985952681</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -5275,7 +5275,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1025585425455315</v>
+        <v>0.100836834439594</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005829319101705098</v>
+        <v>0.001368389541221521</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1028022358986469</v>
+        <v>0.1013999914888146</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004717569652534532</v>
+        <v>0.001111472587491067</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1022417134153862</v>
+        <v>0.1001040816878857</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0007274720079685776</v>
+        <v>0.001702677472211749</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6109,7 +6109,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1016595380474109</v>
+        <v>0.09877013126435057</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0009930652777040971</v>
+        <v>0.002311236806977081</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1009742918699319</v>
+        <v>0.09720328405298902</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001305680312385828</v>
+        <v>0.003026045603317615</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -6583,7 +6583,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1002785591763233</v>
+        <v>0.09557814725488448</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001623079383390938</v>
+        <v>0.003767446596419153</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6795,13 +6795,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09981319991573027</v>
+        <v>0.09431854385360777</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001835380168380279</v>
+        <v>0.00434208819810451</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6981,7 +6981,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -7019,7 +7019,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09925531525776068</v>
+        <v>0.09262162032589598</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002089891813145912</v>
+        <v>0.005116238897375027</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09716718740881718</v>
+        <v>0.08751611787428071</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003042513194149251</v>
+        <v>0.007445411796742473</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09383908341190246</v>
+        <v>0.0800371662256469</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00456082205980023</v>
+        <v>0.01085737206133232</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7632,7 +7632,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -7673,7 +7673,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09096539611045308</v>
+        <v>0.07382660106902968</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00587182223015068</v>
+        <v>0.01369068380481644</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7850,7 +7850,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -7876,19 +7876,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999996</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08812267694993353</v>
+        <v>0.06839711857801296</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007168694475721707</v>
+        <v>0.01616765910656469</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8071,7 +8071,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -8109,7 +8109,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08757320710730433</v>
+        <v>0.068241975844976</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007419367211382948</v>
+        <v>0.01623843651833719</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8507,7 +8507,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0876026752833042</v>
+        <v>0.06900872615688139</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007405923583143978</v>
+        <v>0.01588863861617252</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -8757,13 +8757,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0864776817651894</v>
+        <v>0.06748329174237508</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007919155030820213</v>
+        <v>0.01658455454838532</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -8975,7 +8975,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08752583690964286</v>
+        <v>0.070667740693239</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007440977891561146</v>
+        <v>0.01513178231566909</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -9196,10 +9196,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09083161612977644</v>
+        <v>0.07772332293547758</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005932853775708231</v>
+        <v>0.01191296671355708</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,7 +9376,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -9402,7 +9402,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -9411,13 +9411,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09497732629851634</v>
+        <v>0.08608394519966807</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004041546139452751</v>
+        <v>0.00809878094356698</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -9635,7 +9635,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09622716806504382</v>
+        <v>0.08884137955707973</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003471357877145216</v>
+        <v>0.006840816338137017</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9847,10 +9847,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09591182509351576</v>
+        <v>0.0882804565111568</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0036152199769581</v>
+        <v>0.00709671412088727</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09575610138090387</v>
+        <v>0.08795771390388997</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003686262436469544</v>
+        <v>0.007243951996383599</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -10283,7 +10283,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09569057689358088</v>
+        <v>0.08779064751139316</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003716155255357412</v>
+        <v>0.007320169081280999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,7 +10492,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09566313160727474</v>
+        <v>0.08772161461194554</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003728676024407165</v>
+        <v>0.007351662467109705</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -10937,13 +10937,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09565958034767162</v>
+        <v>0.08771310402339941</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003730296138725896</v>
+        <v>0.007355545068751208</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11123,7 +11123,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09564885398024374</v>
+        <v>0.08767796715846664</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003735189597216701</v>
+        <v>0.007371574800270433</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09562882153572945</v>
+        <v>0.08761390677901815</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003744328565871208</v>
+        <v>0.007400799680906304</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09561282437441906</v>
+        <v>0.08756115572922409</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003751626604593934</v>
+        <v>0.007424865150810182</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -11809,7 +11809,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09559869893503035</v>
+        <v>0.08751072196260624</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003758070748128814</v>
+        <v>0.007447873456757058</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09558142954270732</v>
+        <v>0.08744521639114335</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003765949189275128</v>
+        <v>0.007477757646071418</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12213,7 +12213,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09555155021716877</v>
+        <v>0.08733401266331842</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003779580387370759</v>
+        <v>0.007528489716345224</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,7 +12428,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -12463,13 +12463,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09548494734633244</v>
+        <v>0.08709831176944707</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003809965173832477</v>
+        <v>0.00763601843453987</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12646,7 +12646,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -12678,7 +12678,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999995</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09532040561127618</v>
+        <v>0.08654060673491404</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00388503048889989</v>
+        <v>0.007890448133592142</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12864,7 +12864,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -12899,10 +12899,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999996</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09483982890167846</v>
+        <v>0.08497178884774345</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004104273601339883</v>
+        <v>0.008606155968711209</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.054449091433516</v>
@@ -13326,7 +13326,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -13341,7 +13341,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09398684620615132</v>
+        <v>0.08246087404260093</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004493411437797611</v>
+        <v>0.009751656293543721</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13553,13 +13553,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09426026139776814</v>
+        <v>0.08393669312737546</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004368677141687783</v>
+        <v>0.00907837528952841</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13771,13 +13771,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0950088539929065</v>
+        <v>0.08716394088341721</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004027162941706968</v>
+        <v>0.007606077884100922</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13995,7 +13995,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09563343151243429</v>
+        <v>0.09004720654378695</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003742225455960009</v>
+        <v>0.006290707986337917</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -14198,7 +14198,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -14207,13 +14207,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09584741840858804</v>
+        <v>0.0932793799427966</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003644602845048639</v>
+        <v>0.004816163461411125</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14422,7 +14422,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -14431,7 +14431,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09554343067910064</v>
+        <v>0.0988575400658777</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003783284588515094</v>
+        <v>0.002271360181000961</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09535319182992331</v>
+        <v>0.09740749950640391</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00387007314186708</v>
+        <v>0.002932880806270939</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14867,7 +14867,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09536055128362969</v>
+        <v>0.09419941109899593</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003866715697562722</v>
+        <v>0.004396437556683521</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15070,7 +15070,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09537395373462521</v>
+        <v>0.09057072428877694</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003860601387376854</v>
+        <v>0.006051874814573826</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15300,10 +15300,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09540363954819764</v>
+        <v>0.08808406925879891</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00384705847105788</v>
+        <v>0.007186307627169611</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15733,13 +15733,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09546503324148746</v>
+        <v>0.08734897994106815</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003819050154940532</v>
+        <v>0.007521661519112464</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,7 +15916,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -15942,7 +15942,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -15951,13 +15951,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09553710111588137</v>
+        <v>0.08741152117184373</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003786172188169558</v>
+        <v>0.007493129686800938</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16160,7 +16160,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -16175,7 +16175,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09557576144796039</v>
+        <v>0.0874950363866374</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003768535021482761</v>
+        <v>0.007455029347642216</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,13 +16378,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09557105685913805</v>
+        <v>0.08749302317096351</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003770681294232903</v>
+        <v>0.00745594779346271</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,7 +16570,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -16611,7 +16611,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09551452472213268</v>
+        <v>0.08722878062988668</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003796471727731689</v>
+        <v>0.007576497449714739</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16820,16 +16820,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09544893911322293</v>
+        <v>0.08595014288307855</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003826392430798384</v>
+        <v>0.008159822678954723</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17006,7 +17006,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -17032,7 +17032,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -17044,10 +17044,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09542065942511017</v>
+        <v>0.08430898948651611</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003839293860927742</v>
+        <v>0.008908530578168181</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17227,7 +17227,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,7 +17250,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09540377039319579</v>
+        <v>0.08425408261613709</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003846998778475876</v>
+        <v>0.008933579551445116</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17474,7 +17474,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -17483,7 +17483,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09535875726246104</v>
+        <v>0.08432179500719474</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003867534145017507</v>
+        <v>0.008902688592583098</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17660,7 +17660,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -17692,16 +17692,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999996</v>
       </c>
-      <c r="E8">
-        <v>0.07999999999999997</v>
-      </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09526737293690982</v>
+        <v>0.08446211520256126</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003909224438287966</v>
+        <v>0.00883867334640919</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18099,7 +18099,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,7 +18122,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -18131,13 +18131,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09512388746956217</v>
+        <v>0.08491913143878949</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003974683708000679</v>
+        <v>0.008630178718881018</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18317,7 +18317,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18355,7 +18355,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09539533292409096</v>
+        <v>0.0870356017713506</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003850848022416997</v>
+        <v>0.007664627259914051</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18567,7 +18567,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09618057933292466</v>
+        <v>0.0900253214625472</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0034926120462101</v>
+        <v>0.006300692143354223</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18753,7 +18753,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18782,7 +18782,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09623040958751609</v>
+        <v>0.09019033184816787</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003469879067494912</v>
+        <v>0.006225413025981515</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19003,7 +19003,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09623082833240443</v>
+        <v>0.09013023859468859</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003469688032576243</v>
+        <v>0.006252828070585876</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19189,7 +19189,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09619109449721081</v>
+        <v>0.08985939013935301</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003487814940358175</v>
+        <v>0.006376391400146824</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19442,10 +19442,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09599972450355812</v>
+        <v>0.089095888353493</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003575119531275953</v>
+        <v>0.006724707297572592</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19657,13 +19657,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09573163395688483</v>
+        <v>0.08834065837401259</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003697424679849627</v>
+        <v>0.007069249527777394</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19843,7 +19843,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560499366576881</v>
+        <v>0.08813363190053206</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003755199039343294</v>
+        <v>0.007163696735677559</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20090,16 +20090,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09558753939968988</v>
+        <v>0.08796284508633231</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003763161821442546</v>
+        <v>0.007241611108057782</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20494,7 +20494,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -20520,7 +20520,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -20529,7 +20529,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.095582804994645</v>
+        <v>0.08742658211330609</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003765321696602664</v>
+        <v>0.007486258759399459</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,7 +20712,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -20738,7 +20738,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -20753,7 +20753,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09558139229887885</v>
+        <v>0.08681707123714674</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00376596618022101</v>
+        <v>0.007764322716487745</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20962,7 +20962,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -20971,7 +20971,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09559782560765716</v>
+        <v>0.08663779532513069</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003758469167377298</v>
+        <v>0.007846109886258883</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21174,7 +21174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -21189,7 +21189,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09563393210208096</v>
+        <v>0.08698823036324937</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003741997082778362</v>
+        <v>0.007686238492304972</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21398,10 +21398,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09566858946418459</v>
+        <v>0.08746335309356085</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003726186104458343</v>
+        <v>0.007469483530809479</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21610,7 +21610,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -21625,7 +21625,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09566738842526085</v>
+        <v>0.08770882600514072</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003726734028455784</v>
+        <v>0.00735749673644417</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351603</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21831,16 +21831,16 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="C8">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09562506551814112</v>
+        <v>0.08771774022706248</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003746042092494516</v>
+        <v>0.007353429993882415</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,7 +22046,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -22055,7 +22055,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09558838000678319</v>
+        <v>0.08765396753009559</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003762778329459267</v>
+        <v>0.007382523631365223</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22264,7 +22264,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09559062640566859</v>
+        <v>0.08762830803140513</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003761753503508318</v>
+        <v>0.007394229709175885</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22482,7 +22482,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -22491,13 +22491,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SG2/SG2_Avg.xlsx
+++ b/Recycling/SG2/SG2_Avg.xlsx
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08751611787428071</v>
+        <v>0.08751611787428069</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007445411796742473</v>
+        <v>0.007445411796742472</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.054449091433516</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0874950363866374</v>
+        <v>0.08749503638663737</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007455029347642216</v>
+        <v>0.007455029347642213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16352,7 +16352,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351602</v>
@@ -16378,7 +16378,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08834065837401259</v>
+        <v>0.08834065837401257</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007069249527777394</v>
+        <v>0.007069249527777392</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19840,7 +19840,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -19866,7 +19866,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>

--- a/Recycling/SG2/SG2_Avg.xlsx
+++ b/Recycling/SG2/SG2_Avg.xlsx
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08751611787428069</v>
+        <v>0.08751611787428071</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007445411796742472</v>
+        <v>0.007445411796742473</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.054449091433516</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08749503638663737</v>
+        <v>0.0874950363866374</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007455029347642213</v>
+        <v>0.007455029347642216</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16352,7 +16352,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351602</v>
@@ -16378,7 +16378,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08834065837401257</v>
+        <v>0.08834065837401259</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007069249527777392</v>
+        <v>0.007069249527777394</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19840,7 +19840,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -19866,7 +19866,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>

--- a/Recycling/SG2/SG2_Avg.xlsx
+++ b/Recycling/SG2/SG2_Avg.xlsx
@@ -7,114 +7,103 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2000" sheetId="1" r:id="rId1"/>
-    <sheet name="2001" sheetId="2" r:id="rId2"/>
-    <sheet name="2002" sheetId="3" r:id="rId3"/>
-    <sheet name="2003" sheetId="4" r:id="rId4"/>
-    <sheet name="2004" sheetId="5" r:id="rId5"/>
-    <sheet name="2005" sheetId="6" r:id="rId6"/>
-    <sheet name="2006" sheetId="7" r:id="rId7"/>
-    <sheet name="2007" sheetId="8" r:id="rId8"/>
-    <sheet name="2008" sheetId="9" r:id="rId9"/>
-    <sheet name="2009" sheetId="10" r:id="rId10"/>
-    <sheet name="2010" sheetId="11" r:id="rId11"/>
-    <sheet name="2011" sheetId="12" r:id="rId12"/>
-    <sheet name="2012" sheetId="13" r:id="rId13"/>
-    <sheet name="2013" sheetId="14" r:id="rId14"/>
-    <sheet name="2014" sheetId="15" r:id="rId15"/>
-    <sheet name="2015" sheetId="16" r:id="rId16"/>
-    <sheet name="2016" sheetId="17" r:id="rId17"/>
-    <sheet name="2017" sheetId="18" r:id="rId18"/>
-    <sheet name="2018" sheetId="19" r:id="rId19"/>
-    <sheet name="2019" sheetId="20" r:id="rId20"/>
-    <sheet name="2020" sheetId="21" r:id="rId21"/>
-    <sheet name="2021" sheetId="22" r:id="rId22"/>
-    <sheet name="2022" sheetId="23" r:id="rId23"/>
-    <sheet name="2023" sheetId="24" r:id="rId24"/>
-    <sheet name="2024" sheetId="25" r:id="rId25"/>
-    <sheet name="2025" sheetId="26" r:id="rId26"/>
-    <sheet name="2026" sheetId="27" r:id="rId27"/>
-    <sheet name="2027" sheetId="28" r:id="rId28"/>
-    <sheet name="2028" sheetId="29" r:id="rId29"/>
-    <sheet name="2029" sheetId="30" r:id="rId30"/>
-    <sheet name="2030" sheetId="31" r:id="rId31"/>
-    <sheet name="2031" sheetId="32" r:id="rId32"/>
-    <sheet name="2032" sheetId="33" r:id="rId33"/>
-    <sheet name="2033" sheetId="34" r:id="rId34"/>
-    <sheet name="2034" sheetId="35" r:id="rId35"/>
-    <sheet name="2035" sheetId="36" r:id="rId36"/>
-    <sheet name="2036" sheetId="37" r:id="rId37"/>
-    <sheet name="2037" sheetId="38" r:id="rId38"/>
-    <sheet name="2038" sheetId="39" r:id="rId39"/>
-    <sheet name="2039" sheetId="40" r:id="rId40"/>
-    <sheet name="2040" sheetId="41" r:id="rId41"/>
-    <sheet name="2041" sheetId="42" r:id="rId42"/>
-    <sheet name="2042" sheetId="43" r:id="rId43"/>
-    <sheet name="2043" sheetId="44" r:id="rId44"/>
-    <sheet name="2044" sheetId="45" r:id="rId45"/>
-    <sheet name="2045" sheetId="46" r:id="rId46"/>
-    <sheet name="2046" sheetId="47" r:id="rId47"/>
-    <sheet name="2047" sheetId="48" r:id="rId48"/>
-    <sheet name="2048" sheetId="49" r:id="rId49"/>
-    <sheet name="2049" sheetId="50" r:id="rId50"/>
-    <sheet name="2050" sheetId="51" r:id="rId51"/>
-    <sheet name="2051" sheetId="52" r:id="rId52"/>
-    <sheet name="2052" sheetId="53" r:id="rId53"/>
-    <sheet name="2053" sheetId="54" r:id="rId54"/>
-    <sheet name="2054" sheetId="55" r:id="rId55"/>
-    <sheet name="2055" sheetId="56" r:id="rId56"/>
-    <sheet name="2056" sheetId="57" r:id="rId57"/>
-    <sheet name="2057" sheetId="58" r:id="rId58"/>
-    <sheet name="2058" sheetId="59" r:id="rId59"/>
-    <sheet name="2059" sheetId="60" r:id="rId60"/>
-    <sheet name="2060" sheetId="61" r:id="rId61"/>
-    <sheet name="2061" sheetId="62" r:id="rId62"/>
-    <sheet name="2062" sheetId="63" r:id="rId63"/>
-    <sheet name="2063" sheetId="64" r:id="rId64"/>
-    <sheet name="2064" sheetId="65" r:id="rId65"/>
-    <sheet name="2065" sheetId="66" r:id="rId66"/>
-    <sheet name="2066" sheetId="67" r:id="rId67"/>
-    <sheet name="2067" sheetId="68" r:id="rId68"/>
-    <sheet name="2068" sheetId="69" r:id="rId69"/>
-    <sheet name="2069" sheetId="70" r:id="rId70"/>
-    <sheet name="2070" sheetId="71" r:id="rId71"/>
-    <sheet name="2071" sheetId="72" r:id="rId72"/>
-    <sheet name="2072" sheetId="73" r:id="rId73"/>
-    <sheet name="2073" sheetId="74" r:id="rId74"/>
-    <sheet name="2074" sheetId="75" r:id="rId75"/>
-    <sheet name="2075" sheetId="76" r:id="rId76"/>
-    <sheet name="2076" sheetId="77" r:id="rId77"/>
-    <sheet name="2077" sheetId="78" r:id="rId78"/>
-    <sheet name="2078" sheetId="79" r:id="rId79"/>
-    <sheet name="2079" sheetId="80" r:id="rId80"/>
-    <sheet name="2080" sheetId="81" r:id="rId81"/>
-    <sheet name="2081" sheetId="82" r:id="rId82"/>
-    <sheet name="2082" sheetId="83" r:id="rId83"/>
-    <sheet name="2083" sheetId="84" r:id="rId84"/>
-    <sheet name="2084" sheetId="85" r:id="rId85"/>
-    <sheet name="2085" sheetId="86" r:id="rId86"/>
-    <sheet name="2086" sheetId="87" r:id="rId87"/>
-    <sheet name="2087" sheetId="88" r:id="rId88"/>
-    <sheet name="2088" sheetId="89" r:id="rId89"/>
-    <sheet name="2089" sheetId="90" r:id="rId90"/>
-    <sheet name="2090" sheetId="91" r:id="rId91"/>
-    <sheet name="2091" sheetId="92" r:id="rId92"/>
-    <sheet name="2092" sheetId="93" r:id="rId93"/>
-    <sheet name="2093" sheetId="94" r:id="rId94"/>
-    <sheet name="2094" sheetId="95" r:id="rId95"/>
-    <sheet name="2095" sheetId="96" r:id="rId96"/>
-    <sheet name="2096" sheetId="97" r:id="rId97"/>
-    <sheet name="2097" sheetId="98" r:id="rId98"/>
-    <sheet name="2098" sheetId="99" r:id="rId99"/>
-    <sheet name="2099" sheetId="100" r:id="rId100"/>
-    <sheet name="2100" sheetId="101" r:id="rId101"/>
+    <sheet name="2011" sheetId="1" r:id="rId1"/>
+    <sheet name="2012" sheetId="2" r:id="rId2"/>
+    <sheet name="2013" sheetId="3" r:id="rId3"/>
+    <sheet name="2014" sheetId="4" r:id="rId4"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="2019" sheetId="9" r:id="rId9"/>
+    <sheet name="2020" sheetId="10" r:id="rId10"/>
+    <sheet name="2021" sheetId="11" r:id="rId11"/>
+    <sheet name="2022" sheetId="12" r:id="rId12"/>
+    <sheet name="2023" sheetId="13" r:id="rId13"/>
+    <sheet name="2024" sheetId="14" r:id="rId14"/>
+    <sheet name="2025" sheetId="15" r:id="rId15"/>
+    <sheet name="2026" sheetId="16" r:id="rId16"/>
+    <sheet name="2027" sheetId="17" r:id="rId17"/>
+    <sheet name="2028" sheetId="18" r:id="rId18"/>
+    <sheet name="2029" sheetId="19" r:id="rId19"/>
+    <sheet name="2030" sheetId="20" r:id="rId20"/>
+    <sheet name="2031" sheetId="21" r:id="rId21"/>
+    <sheet name="2032" sheetId="22" r:id="rId22"/>
+    <sheet name="2033" sheetId="23" r:id="rId23"/>
+    <sheet name="2034" sheetId="24" r:id="rId24"/>
+    <sheet name="2035" sheetId="25" r:id="rId25"/>
+    <sheet name="2036" sheetId="26" r:id="rId26"/>
+    <sheet name="2037" sheetId="27" r:id="rId27"/>
+    <sheet name="2038" sheetId="28" r:id="rId28"/>
+    <sheet name="2039" sheetId="29" r:id="rId29"/>
+    <sheet name="2040" sheetId="30" r:id="rId30"/>
+    <sheet name="2041" sheetId="31" r:id="rId31"/>
+    <sheet name="2042" sheetId="32" r:id="rId32"/>
+    <sheet name="2043" sheetId="33" r:id="rId33"/>
+    <sheet name="2044" sheetId="34" r:id="rId34"/>
+    <sheet name="2045" sheetId="35" r:id="rId35"/>
+    <sheet name="2046" sheetId="36" r:id="rId36"/>
+    <sheet name="2047" sheetId="37" r:id="rId37"/>
+    <sheet name="2048" sheetId="38" r:id="rId38"/>
+    <sheet name="2049" sheetId="39" r:id="rId39"/>
+    <sheet name="2050" sheetId="40" r:id="rId40"/>
+    <sheet name="2051" sheetId="41" r:id="rId41"/>
+    <sheet name="2052" sheetId="42" r:id="rId42"/>
+    <sheet name="2053" sheetId="43" r:id="rId43"/>
+    <sheet name="2054" sheetId="44" r:id="rId44"/>
+    <sheet name="2055" sheetId="45" r:id="rId45"/>
+    <sheet name="2056" sheetId="46" r:id="rId46"/>
+    <sheet name="2057" sheetId="47" r:id="rId47"/>
+    <sheet name="2058" sheetId="48" r:id="rId48"/>
+    <sheet name="2059" sheetId="49" r:id="rId49"/>
+    <sheet name="2060" sheetId="50" r:id="rId50"/>
+    <sheet name="2061" sheetId="51" r:id="rId51"/>
+    <sheet name="2062" sheetId="52" r:id="rId52"/>
+    <sheet name="2063" sheetId="53" r:id="rId53"/>
+    <sheet name="2064" sheetId="54" r:id="rId54"/>
+    <sheet name="2065" sheetId="55" r:id="rId55"/>
+    <sheet name="2066" sheetId="56" r:id="rId56"/>
+    <sheet name="2067" sheetId="57" r:id="rId57"/>
+    <sheet name="2068" sheetId="58" r:id="rId58"/>
+    <sheet name="2069" sheetId="59" r:id="rId59"/>
+    <sheet name="2070" sheetId="60" r:id="rId60"/>
+    <sheet name="2071" sheetId="61" r:id="rId61"/>
+    <sheet name="2072" sheetId="62" r:id="rId62"/>
+    <sheet name="2073" sheetId="63" r:id="rId63"/>
+    <sheet name="2074" sheetId="64" r:id="rId64"/>
+    <sheet name="2075" sheetId="65" r:id="rId65"/>
+    <sheet name="2076" sheetId="66" r:id="rId66"/>
+    <sheet name="2077" sheetId="67" r:id="rId67"/>
+    <sheet name="2078" sheetId="68" r:id="rId68"/>
+    <sheet name="2079" sheetId="69" r:id="rId69"/>
+    <sheet name="2080" sheetId="70" r:id="rId70"/>
+    <sheet name="2081" sheetId="71" r:id="rId71"/>
+    <sheet name="2082" sheetId="72" r:id="rId72"/>
+    <sheet name="2083" sheetId="73" r:id="rId73"/>
+    <sheet name="2084" sheetId="74" r:id="rId74"/>
+    <sheet name="2085" sheetId="75" r:id="rId75"/>
+    <sheet name="2086" sheetId="76" r:id="rId76"/>
+    <sheet name="2087" sheetId="77" r:id="rId77"/>
+    <sheet name="2088" sheetId="78" r:id="rId78"/>
+    <sheet name="2089" sheetId="79" r:id="rId79"/>
+    <sheet name="2090" sheetId="80" r:id="rId80"/>
+    <sheet name="2091" sheetId="81" r:id="rId81"/>
+    <sheet name="2092" sheetId="82" r:id="rId82"/>
+    <sheet name="2093" sheetId="83" r:id="rId83"/>
+    <sheet name="2094" sheetId="84" r:id="rId84"/>
+    <sheet name="2095" sheetId="85" r:id="rId85"/>
+    <sheet name="2096" sheetId="86" r:id="rId86"/>
+    <sheet name="2097" sheetId="87" r:id="rId87"/>
+    <sheet name="2098" sheetId="88" r:id="rId88"/>
+    <sheet name="2099" sheetId="89" r:id="rId89"/>
+    <sheet name="2100" sheetId="90" r:id="rId90"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="12">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -639,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1025746396042172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -667,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0005755882974300188</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -698,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -723,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -751,22 +740,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -917,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1010502218032473</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -945,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001271040442048836</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -976,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1001,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1029,563 +1018,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08759757599270024</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007408249922146522</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
         <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08754873131581878</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007430533272071201</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1751,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1027610456816129</v>
+        <v>0.1008947445661934</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1779,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0004905482866059986</v>
+        <v>0.001341970457350267</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1838,7 +1271,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1878,7 +1311,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2029,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1025746396042172</v>
+        <v>0.10067831594271</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2057,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005755882974300188</v>
+        <v>0.001440707004681763</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2116,7 +1549,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2147,16 +1580,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2307,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1023825584253616</v>
+        <v>0.1002834544261705</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2335,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006632173369827394</v>
+        <v>0.001620846129487367</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2366,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2434,7 +1867,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2585,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1021903667013108</v>
+        <v>0.09947515667514692</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2613,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007508968081776226</v>
+        <v>0.001989598320705715</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2669,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2697,13 +2130,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2712,7 +2145,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2863,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.10200222509824</v>
+        <v>0.09831625466741731</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2891,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008367285803232597</v>
+        <v>0.002518299104812155</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2975,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3141,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1018210919880862</v>
+        <v>0.09864251812941788</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3169,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009193630194106455</v>
+        <v>0.002369454985952681</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3200,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3259,16 +2692,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3419,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1016489206395906</v>
+        <v>0.100836834439594</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3447,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009979090279110731</v>
+        <v>0.001368389541221521</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3503,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -3531,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3546,7 +2979,7 @@
         <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3697,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1014867813172858</v>
+        <v>0.1013999914888146</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3725,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001071878342197595</v>
+        <v>0.001111472587491067</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3781,10 +3214,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3815,7 +3248,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3975,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013347559368562</v>
+        <v>0.1001040816878857</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4003,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001141233591650181</v>
+        <v>0.001702677472211749</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4059,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -4102,7 +3535,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4253,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1023825584253616</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4281,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0006632173369827394</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4312,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4337,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4365,22 +3798,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4531,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011911929132764</v>
+        <v>0.09877013126435057</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4559,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001206728243164345</v>
+        <v>0.002311236806977081</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4590,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4615,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4643,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4652,7 +4085,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -4809,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010502218032473</v>
+        <v>0.09720328405298902</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4837,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001271040442048836</v>
+        <v>0.003026045603317615</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5087,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1008947445661934</v>
+        <v>0.09557814725488448</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5115,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001341970457350267</v>
+        <v>0.003767446596419153</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5146,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5174,7 +4607,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5208,7 +4641,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -5365,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.10067831594271</v>
+        <v>0.09431854385360777</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5393,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001440707004681763</v>
+        <v>0.00434208819810451</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5489,10 +4922,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5643,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1002834544261705</v>
+        <v>0.09262162032589598</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5671,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001620846129487367</v>
+        <v>0.005116238897375027</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5730,7 +5163,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5770,7 +5203,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5921,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09947515667514692</v>
+        <v>0.08751611787428071</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5949,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001989598320705715</v>
+        <v>0.007445411796742473</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5980,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6008,7 +5441,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6039,16 +5472,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6199,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09831625466741731</v>
+        <v>0.0800371662256469</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6227,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002518299104812155</v>
+        <v>0.01085737206133232</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6283,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6477,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09864251812941788</v>
+        <v>0.07382660106902968</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6505,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002369454985952681</v>
+        <v>0.01369068380481644</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6595,16 +6028,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6755,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.100836834439594</v>
+        <v>0.06839711857801296</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6783,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001368389541221521</v>
+        <v>0.01616765910656469</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6867,22 +6300,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7033,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013999914888146</v>
+        <v>0.068241975844976</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7061,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001111472587491067</v>
+        <v>0.01623843651833719</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7145,19 +6578,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -7311,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1021903667013108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7339,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0007508968081776226</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7370,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7395,10 +6828,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7423,22 +6856,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7589,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1001040816878857</v>
+        <v>0.06900872615688139</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7617,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001702677472211749</v>
+        <v>0.01588863861617252</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7648,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7673,7 +7106,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7701,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7710,13 +7143,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7867,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09877013126435057</v>
+        <v>0.06748329174237508</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7895,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002311236806977081</v>
+        <v>0.01658455454838532</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7951,10 +7384,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7979,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7988,13 +7421,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8145,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09720328405298902</v>
+        <v>0.070667740693239</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8173,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003026045603317615</v>
+        <v>0.01513178231566909</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8204,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8229,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8257,7 +7690,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8423,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09557814725488448</v>
+        <v>0.07772332293547758</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8451,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003767446596419153</v>
+        <v>0.01191296671355708</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8482,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8535,7 +7968,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8544,7 +7977,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8701,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09431854385360777</v>
+        <v>0.08608394519966807</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8729,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00434208819810451</v>
+        <v>0.00809878094356698</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8760,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8788,7 +8221,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8813,13 +8246,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -8828,7 +8261,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8979,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09262162032589598</v>
+        <v>0.08884137955707973</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9007,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005116238897375027</v>
+        <v>0.006840816338137017</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9066,7 +8499,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9100,13 +8533,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9257,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08751611787428071</v>
+        <v>0.0882804565111568</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9285,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007445411796742473</v>
+        <v>0.00709671412088727</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9316,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9341,10 +8774,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9378,7 +8811,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -9535,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0800371662256469</v>
+        <v>0.08795771390388997</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9563,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01085737206133232</v>
+        <v>0.007243951996383599</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9619,7 +9052,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9647,7 +9080,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9813,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07382660106902968</v>
+        <v>0.08779064751139316</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9841,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01369068380481644</v>
+        <v>0.007320169081280999</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9937,10 +9370,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10091,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06839711857801296</v>
+        <v>0.08772161461194554</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10119,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01616765910656469</v>
+        <v>0.007351662467109705</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10150,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10203,7 +9636,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -10212,13 +9645,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10369,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.10200222509824</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10397,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0008367285803232597</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10428,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10453,10 +9886,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10481,22 +9914,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10647,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.068241975844976</v>
+        <v>0.08771310402339941</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10675,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01623843651833719</v>
+        <v>0.007355545068751208</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10759,7 +10192,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -10771,7 +10204,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -10925,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06900872615688139</v>
+        <v>0.08767796715846664</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10953,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01588863861617252</v>
+        <v>0.007371574800270433</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10984,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11009,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11037,7 +10470,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11046,13 +10479,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11203,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06748329174237508</v>
+        <v>0.08761390677901815</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11231,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01658455454838532</v>
+        <v>0.007400799680906304</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11262,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11290,7 +10723,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11324,13 +10757,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11481,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.070667740693239</v>
+        <v>0.08756115572922409</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11509,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01513178231566909</v>
+        <v>0.007424865150810182</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11540,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11568,7 +11001,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11593,7 +11026,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11602,7 +11035,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -11759,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07772332293547758</v>
+        <v>0.08751072196260624</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11787,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01191296671355708</v>
+        <v>0.007447873456757058</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11846,7 +11279,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11880,13 +11313,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12037,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08608394519966807</v>
+        <v>0.08744521639114335</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12065,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00809878094356698</v>
+        <v>0.007477757646071418</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12124,7 +11557,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12155,7 +11588,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -12164,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12315,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08884137955707973</v>
+        <v>0.08733401266331842</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12343,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006840816338137017</v>
+        <v>0.007528489716345224</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12374,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12436,13 +11869,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12593,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882804565111568</v>
+        <v>0.08709831176944707</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12621,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00709671412088727</v>
+        <v>0.00763601843453987</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12680,7 +12113,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12705,7 +12138,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12714,7 +12147,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -12871,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08795771390388997</v>
+        <v>0.08654060673491404</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12899,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007243951996383599</v>
+        <v>0.007890448133592142</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12983,7 +12416,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12998,7 +12431,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13149,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08779064751139316</v>
+        <v>0.08497178884774345</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13177,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007320169081280999</v>
+        <v>0.008606155968711209</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13208,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13233,10 +12666,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13261,7 +12694,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13276,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13427,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1018210919880862</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13455,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0009193630194106455</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13486,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13511,10 +12944,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13539,22 +12972,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13705,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772161461194554</v>
+        <v>0.08246087404260093</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13733,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007351662467109705</v>
+        <v>0.009751656293543721</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13817,7 +13250,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13832,7 +13265,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13983,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08771310402339941</v>
+        <v>0.08393669312737546</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14011,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007355545068751208</v>
+        <v>0.00907837528952841</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14042,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14070,7 +13503,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14110,7 +13543,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14261,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08767796715846664</v>
+        <v>0.08716394088341721</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14289,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007371574800270433</v>
+        <v>0.007606077884100922</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14320,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14348,7 +13781,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14388,7 +13821,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14539,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08761390677901815</v>
+        <v>0.09004720654378695</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14567,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007400799680906304</v>
+        <v>0.006290707986337917</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14626,7 +14059,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14666,7 +14099,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14817,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08756115572922409</v>
+        <v>0.0932793799427966</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14845,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007424865150810182</v>
+        <v>0.004816163461411125</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14876,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14904,7 +14337,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14938,7 +14371,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -15095,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08751072196260624</v>
+        <v>0.0988575400658777</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15123,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007447873456757058</v>
+        <v>0.002271360181000961</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15154,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15182,7 +14615,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15207,13 +14640,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -15222,7 +14655,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15373,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08744521639114335</v>
+        <v>0.09740749950640391</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15401,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007477757646071418</v>
+        <v>0.002932880806270939</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15432,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15485,7 +14918,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15500,7 +14933,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15651,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08733401266331842</v>
+        <v>0.09419941109899593</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15679,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007528489716345224</v>
+        <v>0.004396437556683521</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15769,16 +15202,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15929,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08709831176944707</v>
+        <v>0.09057072428877694</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15957,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00763601843453987</v>
+        <v>0.006051874814573826</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15988,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16013,10 +15446,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16041,7 +15474,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16050,13 +15483,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16207,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08654060673491404</v>
+        <v>0.08808406925879891</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16235,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007890448133592142</v>
+        <v>0.007186307627169611</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16291,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16485,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1016489206395906</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16513,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0009979090279110731</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16544,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16569,10 +16002,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16597,22 +16030,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16763,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08497178884774345</v>
+        <v>0.08734897994106815</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16791,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008606155968711209</v>
+        <v>0.007521661519112464</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16847,10 +16280,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16875,7 +16308,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16890,7 +16323,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17041,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08246087404260093</v>
+        <v>0.08741152117184373</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17069,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009751656293543721</v>
+        <v>0.007493129686800938</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17100,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17153,7 +16586,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17162,13 +16595,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17319,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08393669312737546</v>
+        <v>0.0874950363866374</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17347,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00907837528952841</v>
+        <v>0.007455029347642216</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17378,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17403,10 +16836,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17437,7 +16870,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17446,7 +16879,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17597,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08716394088341721</v>
+        <v>0.08749302317096351</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17625,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007606077884100922</v>
+        <v>0.00745594779346271</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17681,10 +17114,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17724,7 +17157,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17875,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09004720654378695</v>
+        <v>0.08722878062988668</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17903,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006290707986337917</v>
+        <v>0.007576497449714739</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17934,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17987,13 +17420,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18002,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18153,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0932793799427966</v>
+        <v>0.08595014288307855</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18181,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004816163461411125</v>
+        <v>0.008159822678954723</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18237,7 +17670,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18280,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18431,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0988575400658777</v>
+        <v>0.08430898948651611</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18459,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002271360181000961</v>
+        <v>0.008908530578168181</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18490,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18518,7 +17951,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18543,13 +17976,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18709,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09740749950640391</v>
+        <v>0.08425408261613709</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18737,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002932880806270939</v>
+        <v>0.008933579551445116</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18821,13 +18254,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18987,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09419941109899593</v>
+        <v>0.08432179500719474</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19015,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004396437556683521</v>
+        <v>0.008902688592583098</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19046,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19071,7 +18504,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -19099,7 +18532,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19265,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09057072428877694</v>
+        <v>0.08446211520256126</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19293,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006051874814573826</v>
+        <v>0.00883867334640919</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19324,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19349,10 +18782,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19386,7 +18819,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -19543,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1014867813172858</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19571,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001071878342197595</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19602,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19627,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19655,22 +19088,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19821,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08808406925879891</v>
+        <v>0.08491913143878949</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19849,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007186307627169611</v>
+        <v>0.008630178718881018</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19905,7 +19338,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -19948,7 +19381,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20099,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08734897994106815</v>
+        <v>0.0870356017713506</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20127,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007521661519112464</v>
+        <v>0.007664627259914051</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20186,7 +19619,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20220,13 +19653,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20377,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08741152117184373</v>
+        <v>0.0900253214625472</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20405,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007493129686800938</v>
+        <v>0.006300692143354223</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20464,7 +19897,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20655,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0874950363866374</v>
+        <v>0.09019033184816787</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20683,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007455029347642216</v>
+        <v>0.006225413025981515</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20739,7 +20172,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351602</v>
@@ -20767,13 +20200,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20933,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08749302317096351</v>
+        <v>0.09013023859468859</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20961,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00745594779346271</v>
+        <v>0.006252828070585876</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20992,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21017,10 +20450,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21060,7 +20493,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21211,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08722878062988668</v>
+        <v>0.08985939013935301</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21239,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007576497449714739</v>
+        <v>0.006376391400146824</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21270,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21323,19 +20756,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999996</v>
@@ -21489,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08595014288307855</v>
+        <v>0.089095888353493</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21517,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008159822678954723</v>
+        <v>0.006724707297572592</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21573,7 +21006,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21610,13 +21043,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21767,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08430898948651611</v>
+        <v>0.08834065837401259</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21795,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008908530578168181</v>
+        <v>0.007069249527777394</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21826,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21851,10 +21284,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21879,7 +21312,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -22045,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08425408261613709</v>
+        <v>0.08813363190053206</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22073,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008933579551445116</v>
+        <v>0.007163696735677559</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22129,10 +21562,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22157,22 +21590,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22323,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08432179500719474</v>
+        <v>0.08796284508633231</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22351,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008902688592583098</v>
+        <v>0.007241611108057782</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22435,13 +21868,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22601,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1013347559368562</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22629,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001141233591650181</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22660,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22685,10 +22118,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22713,22 +22146,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22879,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08446211520256126</v>
+        <v>0.08742658211330609</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22907,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00883867334640919</v>
+        <v>0.007486258759399459</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22938,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23000,13 +22433,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23157,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08491913143878949</v>
+        <v>0.08681707123714674</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23185,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008630178718881018</v>
+        <v>0.007764322716487745</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23275,7 +22708,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23284,7 +22717,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23435,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0870356017713506</v>
+        <v>0.08663779532513069</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23463,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007664627259914051</v>
+        <v>0.007846109886258883</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23494,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23522,7 +22955,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23547,7 +22980,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23556,7 +22989,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -23713,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0900253214625472</v>
+        <v>0.08698823036324937</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23741,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006300692143354223</v>
+        <v>0.007686238492304972</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23772,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23797,10 +23230,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23825,16 +23258,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -23991,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09019033184816787</v>
+        <v>0.08746335309356085</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24019,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006225413025981515</v>
+        <v>0.007469483530809479</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24078,7 +23511,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24118,7 +23551,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24269,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09013023859468859</v>
+        <v>0.08770882600514072</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24297,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006252828070585876</v>
+        <v>0.00735749673644417</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24353,10 +23786,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351603</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24384,19 +23817,19 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24547,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08985939013935301</v>
+        <v>0.08771774022706248</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24575,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006376391400146824</v>
+        <v>0.007353429993882415</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24631,10 +24064,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24659,7 +24092,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -24668,13 +24101,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24825,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.089095888353493</v>
+        <v>0.08765396753009559</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24853,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006724707297572592</v>
+        <v>0.007382523631365223</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24884,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24946,7 +24379,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -25103,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08834065837401259</v>
+        <v>0.08762830803140513</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25131,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007069249527777394</v>
+        <v>0.007394229709175885</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25162,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25187,7 +24620,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -25215,7 +24648,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -25224,13 +24657,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25381,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08813363190053206</v>
+        <v>0.08759757599270024</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25409,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007163696735677559</v>
+        <v>0.007408249922146522</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25465,10 +24898,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25499,16 +24932,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25659,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1011911929132764</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25687,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001206728243164345</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25718,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25743,10 +25176,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25771,22 +25204,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25937,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08796284508633231</v>
+        <v>0.08754873131581878</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25965,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007241611108057782</v>
+        <v>0.007430533272071201</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25996,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -26021,7 +25454,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -26065,2508 +25498,6 @@
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08742658211330609</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007486258759399459</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08681707123714674</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007764322716487745</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08663779532513069</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007846109886258883</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08698823036324937</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007686238492304972</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08746335309356085</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007469483530809479</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08770882600514072</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.00735749673644417</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351603</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352942</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08771774022706248</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007353429993882415</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08765396753009559</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007382523631365223</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08762830803140513</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007394229709175885</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/Recycling/SG2/SG2_Avg.xlsx
+++ b/Recycling/SG2/SG2_Avg.xlsx
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005755882974300188</v>
+        <v>0.0005755882974300185</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -1586,10 +1586,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001620846129487367</v>
+        <v>0.001620846129487366</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1867,7 +1867,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09831625466741731</v>
+        <v>0.09831625466741729</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002518299104812155</v>
+        <v>0.002518299104812156</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09864251812941788</v>
+        <v>0.09864251812941786</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002369454985952681</v>
+        <v>0.00236945498595268</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2701,7 +2701,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2976,10 +2976,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013999914888146</v>
+        <v>0.1013999914888147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -3248,7 +3248,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001702677472211749</v>
+        <v>0.001702677472211748</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -3520,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006632173369827394</v>
+        <v>0.000663217336982739</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09877013126435057</v>
+        <v>0.09877013126435055</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002311236806977081</v>
+        <v>0.00231123680697708</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4085,13 +4085,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003026045603317615</v>
+        <v>0.003026045603317614</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -4360,7 +4360,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4369,7 +4369,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09557814725488448</v>
+        <v>0.09557814725488446</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003767446596419153</v>
+        <v>0.003767446596419152</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09431854385360777</v>
+        <v>0.09431854385360779</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00434208819810451</v>
+        <v>0.004342088198104507</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4925,7 +4925,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007445411796742473</v>
+        <v>0.007445411796742472</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5466,7 +5466,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5475,7 +5475,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0800371662256469</v>
+        <v>0.08003716622564688</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -5759,7 +5759,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07382660106902968</v>
+        <v>0.07382660106902969</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01369068380481644</v>
+        <v>0.01369068380481643</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6034,10 +6034,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06839711857801296</v>
+        <v>0.06839711857801299</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01616765910656469</v>
+        <v>0.01616765910656468</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6306,16 +6306,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.068241975844976</v>
+        <v>0.06824197584497602</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01623843651833719</v>
+        <v>0.01623843651833718</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6590,10 +6590,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007508968081776226</v>
+        <v>0.0007508968081776223</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06900872615688139</v>
+        <v>0.0690087261568814</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01588863861617252</v>
+        <v>0.01588863861617253</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7134,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7143,13 +7143,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7427,7 +7427,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01513178231566909</v>
+        <v>0.0151317823156691</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7690,7 +7690,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7705,7 +7705,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07772332293547758</v>
+        <v>0.07772332293547757</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01191296671355708</v>
+        <v>0.01191296671355709</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08608394519966807</v>
+        <v>0.08608394519966808</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00809878094356698</v>
+        <v>0.008098780943566981</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08884137955707973</v>
+        <v>0.08884137955707976</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006840816338137017</v>
+        <v>0.006840816338137016</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -8524,7 +8524,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882804565111568</v>
+        <v>0.08828045651115685</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00709671412088727</v>
+        <v>0.007096714120887269</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351602</v>
@@ -8802,7 +8802,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8811,7 +8811,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007243951996383599</v>
+        <v>0.007243951996383598</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08779064751139316</v>
+        <v>0.08779064751139315</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007320169081280999</v>
+        <v>0.007320169081281002</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9364,7 +9364,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -9373,7 +9373,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772161461194554</v>
+        <v>0.08772161461194557</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007351662467109705</v>
+        <v>0.007351662467109707</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9636,7 +9636,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9645,13 +9645,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008367285803232597</v>
+        <v>0.000836728580323259</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9923,7 +9923,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007355545068751208</v>
+        <v>0.007355545068751209</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10192,16 +10192,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08767796715846664</v>
+        <v>0.08767796715846665</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007371574800270433</v>
+        <v>0.007371574800270431</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007400799680906304</v>
+        <v>0.007400799680906303</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10723,7 +10723,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08756115572922409</v>
+        <v>0.08756115572922407</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08751072196260624</v>
+        <v>0.08751072196260627</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11304,7 +11304,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11313,13 +11313,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08744521639114335</v>
+        <v>0.08744521639114333</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007477757646071418</v>
+        <v>0.007477757646071419</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08709831176944707</v>
+        <v>0.08709831176944706</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00763601843453987</v>
+        <v>0.007636018434539875</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007890448133592142</v>
+        <v>0.007890448133592153</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12431,7 +12431,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08497178884774345</v>
+        <v>0.08497178884774342</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008606155968711209</v>
+        <v>0.008606155968711213</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12666,10 +12666,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12694,13 +12694,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009193630194106455</v>
+        <v>0.0009193630194106453</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12944,7 +12944,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12972,7 +12972,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12987,7 +12987,7 @@
         <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08246087404260093</v>
+        <v>0.08246087404260098</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009751656293543721</v>
+        <v>0.00975165629354369</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13259,13 +13259,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08393669312737546</v>
+        <v>0.08393669312737548</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00907837528952841</v>
+        <v>0.009078375289528408</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13503,7 +13503,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13528,7 +13528,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13543,7 +13543,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08716394088341721</v>
+        <v>0.08716394088341707</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007606077884100922</v>
+        <v>0.007606077884100991</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13821,7 +13821,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09004720654378695</v>
+        <v>0.09004720654378659</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006290707986337917</v>
+        <v>0.006290707986338088</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -14084,19 +14084,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999999</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0932793799427966</v>
+        <v>0.09327937994279606</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004816163461411125</v>
+        <v>0.004816163461411372</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0988575400658777</v>
+        <v>0.09885754006587733</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002271360181000961</v>
+        <v>0.002271360181001129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14646,7 +14646,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09740749950640391</v>
+        <v>0.09740749950640355</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002932880806270939</v>
+        <v>0.002932880806271112</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14890,10 +14890,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14918,7 +14918,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14930,7 +14930,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999996</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09419941109899593</v>
+        <v>0.09419941109899561</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004396437556683521</v>
+        <v>0.00439643755668367</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15196,13 +15196,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -15211,7 +15211,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09057072428877694</v>
+        <v>0.09057072428877673</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006051874814573826</v>
+        <v>0.006051874814573924</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15449,7 +15449,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15480,7 +15480,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08808406925879891</v>
+        <v>0.08808406925879886</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007186307627169611</v>
+        <v>0.007186307627169629</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -15758,7 +15758,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -15767,7 +15767,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009979090279110731</v>
+        <v>0.0009979090279110727</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16002,7 +16002,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16036,13 +16036,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999996</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08734897994106815</v>
+        <v>0.08734897994106822</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007521661519112464</v>
+        <v>0.007521661519112436</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16308,7 +16308,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16323,7 +16323,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08741152117184373</v>
+        <v>0.08741152117184375</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007493129686800938</v>
+        <v>0.007493129686800926</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16561,7 +16561,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16601,7 +16601,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0874950363866374</v>
+        <v>0.08749503638663741</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007455029347642216</v>
+        <v>0.007455029347642195</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16836,10 +16836,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08749302317096351</v>
+        <v>0.08749302317096366</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00745594779346271</v>
+        <v>0.007455947793462631</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17114,7 +17114,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17157,7 +17157,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08722878062988668</v>
+        <v>0.08722878062988751</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007576497449714739</v>
+        <v>0.00757649744971436</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17392,10 +17392,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17426,7 +17426,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08595014288307855</v>
+        <v>0.08595014288308213</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008159822678954723</v>
+        <v>0.008159822678953078</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08430898948651611</v>
+        <v>0.08430898948651779</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008908530578168181</v>
+        <v>0.008908530578167411</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17951,7 +17951,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17982,7 +17982,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17991,7 +17991,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08425408261613709</v>
+        <v>0.08425408261613744</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008933579551445116</v>
+        <v>0.008933579551444967</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18254,13 +18254,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18269,7 +18269,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08432179500719474</v>
+        <v>0.08432179500719507</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008902688592583098</v>
+        <v>0.00890268859258295</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18504,10 +18504,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18532,13 +18532,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08446211520256126</v>
+        <v>0.08446211520256157</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00883867334640919</v>
+        <v>0.008838673346409051</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18810,7 +18810,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18819,7 +18819,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001071878342197595</v>
+        <v>0.001071878342197594</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19060,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19088,7 +19088,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19097,13 +19097,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08491913143878949</v>
+        <v>0.08491913143878974</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008630178718881018</v>
+        <v>0.008630178718880898</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19366,7 +19366,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007664627259914051</v>
+        <v>0.007664627259914043</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19619,7 +19619,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19653,10 +19653,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0900253214625472</v>
+        <v>0.09002532146254685</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006300692143354223</v>
+        <v>0.006300692143354378</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19897,7 +19897,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19937,7 +19937,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09019033184816787</v>
+        <v>0.09019033184816755</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006225413025981515</v>
+        <v>0.00622541302598166</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20175,7 +20175,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09013023859468859</v>
+        <v>0.0901302385946884</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006252828070585876</v>
+        <v>0.006252828070585978</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20450,10 +20450,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20493,7 +20493,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08985939013935301</v>
+        <v>0.08985939013935296</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006376391400146824</v>
+        <v>0.006376391400146856</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20762,16 +20762,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21043,10 +21043,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08834065837401259</v>
+        <v>0.08834065837401268</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007069249527777394</v>
+        <v>0.007069249527777347</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21287,7 +21287,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21312,7 +21312,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08813363190053206</v>
+        <v>0.08813363190053215</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007163696735677559</v>
+        <v>0.007163696735677499</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21562,10 +21562,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21590,7 +21590,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21605,7 +21605,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08796284508633231</v>
+        <v>0.08796284508633229</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007241611108057782</v>
+        <v>0.007241611108057794</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21874,7 +21874,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21883,7 +21883,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22161,7 +22161,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08742658211330609</v>
+        <v>0.08742658211330606</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007486258759399459</v>
+        <v>0.007486258759399478</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22399,7 +22399,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22430,7 +22430,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08681707123714674</v>
+        <v>0.0868170712371468</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007764322716487745</v>
+        <v>0.007764322716487722</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22717,7 +22717,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08663779532513069</v>
+        <v>0.08663779532513079</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007846109886258883</v>
+        <v>0.007846109886258831</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22995,7 +22995,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08698823036324937</v>
+        <v>0.08698823036324943</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007686238492304972</v>
+        <v>0.007686238492304937</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23230,10 +23230,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23267,7 +23267,7 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08746335309356085</v>
+        <v>0.08746335309356075</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007469483530809479</v>
+        <v>0.007469483530809525</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23536,7 +23536,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23548,10 +23548,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08770882600514072</v>
+        <v>0.08770882600514048</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00735749673644417</v>
+        <v>0.007357496736444279</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351603</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23817,16 +23817,16 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08771774022706248</v>
+        <v>0.08771774022706258</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007353429993882415</v>
+        <v>0.00735342999388237</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24064,10 +24064,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08765396753009559</v>
+        <v>0.08765396753009586</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007382523631365223</v>
+        <v>0.007382523631365098</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24345,7 +24345,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08762830803140513</v>
+        <v>0.0876283080314052</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007394229709175885</v>
+        <v>0.007394229709175853</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08759757599270024</v>
+        <v>0.08759757599270022</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007408249922146522</v>
+        <v>0.007408249922146541</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24941,7 +24941,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08754873131581878</v>
+        <v>0.08754873131581883</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007430533272071201</v>
+        <v>0.007430533272071179</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25497,7 +25497,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/Recycling/SG2/SG2_Avg.xlsx
+++ b/Recycling/SG2/SG2_Avg.xlsx
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1033,7 +1033,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1311,7 +1311,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001440707004681763</v>
+        <v>0.001440707004681761</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001620846129487366</v>
+        <v>0.001620846129487356</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09947515667514692</v>
+        <v>0.09947515667514704</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001989598320705715</v>
+        <v>0.001989598320705652</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2139,10 +2139,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09831625466741729</v>
+        <v>0.09831625466741842</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002518299104812156</v>
+        <v>0.002518299104811644</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09864251812941786</v>
+        <v>0.09864251812942454</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00236945498595268</v>
+        <v>0.002369454985949648</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2686,13 +2686,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.100836834439594</v>
+        <v>0.1008368344396083</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001368389541221521</v>
+        <v>0.001368389541215019</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2970,16 +2970,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013999914888147</v>
+        <v>0.1013999914888516</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001111472587491067</v>
+        <v>0.001111472587474195</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -3248,7 +3248,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1001040816878857</v>
+        <v>0.1001040816884483</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001702677472211748</v>
+        <v>0.001702677471955078</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -3529,7 +3529,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09877013126435055</v>
+        <v>0.09877013126887368</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00231123680697708</v>
+        <v>0.002311236804913594</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -4085,7 +4085,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09720328405298902</v>
+        <v>0.09720328408362471</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003026045603317614</v>
+        <v>0.003026045589341351</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4369,7 +4369,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09557814725488446</v>
+        <v>0.09557814743169746</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003767446596419152</v>
+        <v>0.003767446515755584</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4641,13 +4641,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09431854385360779</v>
+        <v>0.09431854478816873</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004342088198104507</v>
+        <v>0.004342087771749983</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09262162032589598</v>
+        <v>0.09262162517425315</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005116238897375027</v>
+        <v>0.005116236685513949</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08751611787428071</v>
+        <v>0.08751614656548275</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007445411796742472</v>
+        <v>0.00744539870757624</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08003716622564688</v>
+        <v>0.08003732213219088</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01085737206133232</v>
+        <v>0.0108573009354636</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07382660106902969</v>
+        <v>0.07382727163114909</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01369068380481643</v>
+        <v>0.0136903778887718</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6031,13 +6031,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06839711857801299</v>
+        <v>0.06839972354141256</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01616765910656468</v>
+        <v>0.01616647070048484</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6300,22 +6300,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06824197584497602</v>
+        <v>0.06825087376681359</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01623843651833718</v>
+        <v>0.01623437721201011</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6587,13 +6587,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0690087261568814</v>
+        <v>0.0690377430907702</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01588863861617253</v>
+        <v>0.01587540084835691</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06748329174237508</v>
+        <v>0.06757739284387423</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01658455454838532</v>
+        <v>0.01654162483921574</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7421,13 +7421,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.070667740693239</v>
+        <v>0.07090196992060231</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0151317823156691</v>
+        <v>0.01502492498403824</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7662,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7705,7 +7705,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07772332293547757</v>
+        <v>0.0781342995806333</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01191296671355709</v>
+        <v>0.01172547573235763</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7983,7 +7983,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08608394519966808</v>
+        <v>0.08655165170948678</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008098780943566981</v>
+        <v>0.007885409323858365</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8246,22 +8246,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08884137955707976</v>
+        <v>0.08936668779379812</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006840816338137016</v>
+        <v>0.006601166329078288</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -8524,7 +8524,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8533,10 +8533,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08828045651115685</v>
+        <v>0.08896325856561811</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007096714120887269</v>
+        <v>0.006785214115558593</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8802,7 +8802,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8811,7 +8811,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08795771390388997</v>
+        <v>0.08877807442646127</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007243951996383598</v>
+        <v>0.006869696667942914</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9086,10 +9086,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08779064751139315</v>
+        <v>0.08860949344143758</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007320169081281002</v>
+        <v>0.006946604722612767</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9358,13 +9358,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -9373,7 +9373,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772161461194557</v>
+        <v>0.08844922592406915</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007351662467109707</v>
+        <v>0.007019720103839413</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9651,7 +9651,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08771310402339941</v>
+        <v>0.08844614445747795</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007355545068751209</v>
+        <v>0.007021125894658732</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10198,16 +10198,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08767796715846665</v>
+        <v>0.08850239294273514</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007371574800270431</v>
+        <v>0.006995464865458744</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10476,7 +10476,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10485,7 +10485,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08761390677901815</v>
+        <v>0.08851242109949797</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007400799680906303</v>
+        <v>0.006990889936510238</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -10763,7 +10763,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08756115572922407</v>
+        <v>0.08848735432861331</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007424865150810182</v>
+        <v>0.007002325606940824</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11026,22 +11026,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08751072196260627</v>
+        <v>0.08842839630395555</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007447873456757058</v>
+        <v>0.007029222750666539</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11279,7 +11279,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11310,16 +11310,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08744521639114333</v>
+        <v>0.08830368884784756</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007477757646071419</v>
+        <v>0.007086115334671428</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08733401266331842</v>
+        <v>0.08808498467700261</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007528489716345224</v>
+        <v>0.007185890005732365</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11860,7 +11860,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08709831176944706</v>
+        <v>0.08768972221208782</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007636018434539875</v>
+        <v>0.007366212046538641</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12147,13 +12147,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08654060673491404</v>
+        <v>0.08682197525560421</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007890448133592153</v>
+        <v>0.007762085462270866</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12391,7 +12391,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12422,7 +12422,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08497178884774342</v>
+        <v>0.08440491824304604</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008606155968711213</v>
+        <v>0.008864767077494734</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12669,7 +12669,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -12709,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12947,7 +12947,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08246087404260098</v>
+        <v>0.07995983999844819</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00975165629354369</v>
+        <v>0.01089264893261157</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08393669312737548</v>
+        <v>0.07780234753604602</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009078375289528408</v>
+        <v>0.01187691503014852</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13528,13 +13528,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13543,7 +13543,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08716394088341707</v>
+        <v>0.07693077251719734</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007606077884100991</v>
+        <v>0.0122745348399335</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09004720654378659</v>
+        <v>0.07608324762034656</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006290707986338088</v>
+        <v>0.01266118278300901</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -14084,22 +14084,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09327937994279606</v>
+        <v>0.07508171743302104</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004816163461411372</v>
+        <v>0.01311808922705135</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14362,7 +14362,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09885754006587733</v>
+        <v>0.07778264530463931</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002271360181001129</v>
+        <v>0.01188590335282282</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09740749950640355</v>
+        <v>0.08335688121842597</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002932880806271112</v>
+        <v>0.009342890329498359</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14893,7 +14893,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14927,10 +14927,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999996</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09419941109899561</v>
+        <v>0.08726603668538957</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00439643755668367</v>
+        <v>0.007559500925741429</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15196,13 +15196,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -15211,7 +15211,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09057072428877673</v>
+        <v>0.08867462641138434</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006051874814573924</v>
+        <v>0.006916890517224941</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15446,7 +15446,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -15480,7 +15480,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -15489,7 +15489,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08808406925879886</v>
+        <v>0.08878017755796548</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007186307627169629</v>
+        <v>0.006868737201768942</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15752,22 +15752,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16045,7 +16045,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08734897994106822</v>
+        <v>0.08864201840844473</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007521661519112436</v>
+        <v>0.006931766560762122</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16283,7 +16283,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16320,10 +16320,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08741152117184375</v>
+        <v>0.08853700660235703</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007493129686800926</v>
+        <v>0.006979673824576238</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16558,10 +16558,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16601,7 +16601,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08749503638663741</v>
+        <v>0.08847772093756759</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007455029347642195</v>
+        <v>0.007006720440469025</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16836,10 +16836,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16864,13 +16864,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -16879,7 +16879,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08749302317096366</v>
+        <v>0.08846751336049644</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007455947793462631</v>
+        <v>0.007011377222462103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08722878062988751</v>
+        <v>0.0884782282607446</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00757649744971436</v>
+        <v>0.007006488995394556</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17392,7 +17392,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08595014288308213</v>
+        <v>0.088467193421554</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008159822678953078</v>
+        <v>0.007011523181282273</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17673,7 +17673,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08430898948651779</v>
+        <v>0.08841250474899774</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008908530578167411</v>
+        <v>0.007036472610888387</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17948,7 +17948,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17976,13 +17976,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08425408261613744</v>
+        <v>0.0882992445481648</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008933579551444967</v>
+        <v>0.007088142861340138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18229,7 +18229,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08432179500719507</v>
+        <v>0.08809871899692739</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00890268859258295</v>
+        <v>0.007179624294166611</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18507,7 +18507,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18547,7 +18547,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08446211520256157</v>
+        <v>0.08776880468749801</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008838673346409051</v>
+        <v>0.007330133960143438</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18810,7 +18810,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19063,7 +19063,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19103,7 +19103,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08491913143878974</v>
+        <v>0.08723917334344763</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008630178718880898</v>
+        <v>0.007571756206907291</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0870356017713506</v>
+        <v>0.08633055172972413</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007664627259914043</v>
+        <v>0.007986276982976007</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19656,10 +19656,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09002532146254685</v>
+        <v>0.08476587339315303</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006300692143354378</v>
+        <v>0.00870009632050581</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19897,7 +19897,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19922,13 +19922,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -19937,7 +19937,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09019033184816755</v>
+        <v>0.08281628198997473</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00622541302598166</v>
+        <v>0.009589516216815128</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20175,7 +20175,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20209,13 +20209,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0901302385946884</v>
+        <v>0.08149462151065542</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006252828070585978</v>
+        <v>0.01019246877628782</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20450,7 +20450,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -20478,7 +20478,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08985939013935296</v>
+        <v>0.08110318100132582</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006376391400146856</v>
+        <v>0.01037104720900538</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20756,16 +20756,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.089095888353493</v>
+        <v>0.08137465122196411</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006724707297572592</v>
+        <v>0.0102472002249155</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21009,7 +21009,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21046,7 +21046,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08834065837401268</v>
+        <v>0.08237444010764255</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007069249527777347</v>
+        <v>0.009791088177241471</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21284,7 +21284,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -21312,7 +21312,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08813363190053215</v>
+        <v>0.08419364551300451</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007163696735677499</v>
+        <v>0.008961151463135836</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21599,13 +21599,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08796284508633229</v>
+        <v>0.08623224266210121</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007241611108057794</v>
+        <v>0.008031126401468991</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21840,7 +21840,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21868,13 +21868,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22118,7 +22118,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22161,7 +22161,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08742658211330606</v>
+        <v>0.08767468981527915</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007486258759399478</v>
+        <v>0.007373069951630481</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22396,10 +22396,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22424,22 +22424,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0868170712371468</v>
+        <v>0.08831822168289914</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007764322716487722</v>
+        <v>0.007079485333829428</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08663779532513079</v>
+        <v>0.08847124732354616</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007846109886258831</v>
+        <v>0.007009673757303673</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22952,7 +22952,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22986,16 +22986,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08698823036324943</v>
+        <v>0.08845672262862929</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007686238492304937</v>
+        <v>0.007016300044548177</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23230,7 +23230,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23264,7 +23264,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08746335309356075</v>
+        <v>0.08842296974889466</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007469483530809525</v>
+        <v>0.007031698390450183</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23508,7 +23508,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23548,10 +23548,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08770882600514048</v>
+        <v>0.08840180616068943</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007357496736444279</v>
+        <v>0.007041353396312612</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23820,7 +23820,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23829,7 +23829,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08771774022706258</v>
+        <v>0.08839130128260564</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00735342999388237</v>
+        <v>0.007046145809513039</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24067,7 +24067,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08765396753009586</v>
+        <v>0.08837695117683297</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007382523631365098</v>
+        <v>0.007052692447730434</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24345,7 +24345,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0876283080314052</v>
+        <v>0.08833625961838958</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007394229709175853</v>
+        <v>0.007071256276865289</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24663,7 +24663,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08759757599270022</v>
+        <v>0.0882474431352941</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007408249922146541</v>
+        <v>0.007111775098940808</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24932,7 +24932,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08754873131581883</v>
+        <v>0.08808871374397395</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007430533272071179</v>
+        <v>0.007184188774205811</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25482,22 +25482,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/Recycling/SG2/SG2_Avg.xlsx
+++ b/Recycling/SG2/SG2_Avg.xlsx
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1025746396042172</v>
+        <v>0.1026206510008529</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005755882974300185</v>
+        <v>0.0005545975136390913</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010502218032473</v>
+        <v>0.1011984851356063</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001271040442048836</v>
+        <v>0.001203401470376</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1008947445661934</v>
+        <v>0.1010499656595435</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001341970457350267</v>
+        <v>0.001271157296947818</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.10067831594271</v>
+        <v>0.1008408631272178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001440707004681761</v>
+        <v>0.001366551620248575</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -1574,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1583,13 +1583,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1002834544261705</v>
+        <v>0.1004531575413212</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001620846129487356</v>
+        <v>0.001543426149672816</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09947515667514704</v>
+        <v>0.09963243218910818</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001989598320705652</v>
+        <v>0.001917847916445935</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2130,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2142,10 +2142,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09831625466741842</v>
+        <v>0.09833447830615524</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002518299104811644</v>
+        <v>0.002509985328474072</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2423,7 +2423,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09864251812942454</v>
+        <v>0.0984209214118492</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002369454985949648</v>
+        <v>0.002470549261010065</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2701,7 +2701,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1008368344396083</v>
+        <v>0.1007235872048714</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001368389541215019</v>
+        <v>0.001420053876425347</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013999914888516</v>
+        <v>0.1014497143543703</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001111472587474195</v>
+        <v>0.001088788600551759</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3257,7 +3257,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1001040816884483</v>
+        <v>0.1001651230676557</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001702677471955078</v>
+        <v>0.001674829884467391</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3529,7 +3529,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1023825584253616</v>
+        <v>0.1024417751394775</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000663217336982739</v>
+        <v>0.0006362021769636386</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3813,7 +3813,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09877013126887368</v>
+        <v>0.09878646669928498</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002311236804913594</v>
+        <v>0.002303784444999155</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09720328408362471</v>
+        <v>0.09714590045657018</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003026045589341351</v>
+        <v>0.003052224479718843</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09557814743169746</v>
+        <v>0.09547177607745104</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003767446515755584</v>
+        <v>0.003815974016805235</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4638,16 +4638,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09431854478816873</v>
+        <v>0.09416521403259515</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004342087771749983</v>
+        <v>0.004412038544255945</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351602</v>
@@ -4910,7 +4910,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09262162517425315</v>
+        <v>0.09232966265540747</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005116236685513949</v>
+        <v>0.005249432427357397</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08751614656548275</v>
+        <v>0.08703963416571547</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00744539870757624</v>
+        <v>0.007662787647894819</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -5475,13 +5475,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08003732213219088</v>
+        <v>0.07926888827324471</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0108573009354636</v>
+        <v>0.01120786688586237</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351602</v>
@@ -5756,10 +5756,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07382727163114909</v>
+        <v>0.07277032040815191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0136903778887718</v>
+        <v>0.01417256787259591</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06839972354141256</v>
+        <v>0.06782851952037154</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01616647070048484</v>
+        <v>0.01642705875003079</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6300,10 +6300,10 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
@@ -6315,7 +6315,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06825087376681359</v>
+        <v>0.06825579529848254</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01623437721201011</v>
+        <v>0.01623213196811975</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6584,10 +6584,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -6744,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1021903667013108</v>
+        <v>0.1022632033089255</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007508968081776223</v>
+        <v>0.0007176681388848702</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6828,7 +6828,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6856,7 +6856,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6865,7 +6865,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0690377430907702</v>
+        <v>0.06918691324379804</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01587540084835691</v>
+        <v>0.01580734817751409</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7149,7 +7149,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06757739284387423</v>
+        <v>0.06778976205501927</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01654162483921574</v>
+        <v>0.01644474022972884</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7427,7 +7427,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07090196992060231</v>
+        <v>0.07117482521273948</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01502492498403824</v>
+        <v>0.01490044611875165</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7662,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0781342995806333</v>
+        <v>0.07844455228833928</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01172547573235763</v>
+        <v>0.01158393585345393</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -7977,13 +7977,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08655165170948678</v>
+        <v>0.08678165312926595</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007885409323858365</v>
+        <v>0.007780480753390998</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8252,13 +8252,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08936668779379812</v>
+        <v>0.08947904538289758</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006601166329078288</v>
+        <v>0.006549907857645003</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08896325856561811</v>
+        <v>0.08906334138327136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006785214115558593</v>
+        <v>0.00673955549747361</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8802,7 +8802,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8811,7 +8811,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08877807442646127</v>
+        <v>0.08882940445806178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006869696667942914</v>
+        <v>0.006846279478418345</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9080,22 +9080,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08860949344143758</v>
+        <v>0.08859134402528282</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006946604722612767</v>
+        <v>0.006954884637987909</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9370,7 +9370,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08844922592406915</v>
+        <v>0.08837693119149771</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007019720103839413</v>
+        <v>0.007052701565207456</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9608,10 +9608,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9645,10 +9645,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.10200222509824</v>
+        <v>0.1020885840772291</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000836728580323259</v>
+        <v>0.0007973308921652816</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9914,7 +9914,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9923,13 +9923,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08844614445747795</v>
+        <v>0.08833614601566407</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007021125894658732</v>
+        <v>0.007071308103378357</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10201,13 +10201,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08850239294273514</v>
+        <v>0.08836280870988962</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006995464865458744</v>
+        <v>0.007059144359378078</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10470,13 +10470,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10485,7 +10485,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08851242109949797</v>
+        <v>0.08835243586005649</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006990889936510238</v>
+        <v>0.007063876540186821</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10763,7 +10763,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08848735432861331</v>
+        <v>0.08831472925553815</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007002325606940824</v>
+        <v>0.007081078608387466</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11026,22 +11026,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08842839630395555</v>
+        <v>0.08825680971327327</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007029222750666539</v>
+        <v>0.007107501987764058</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11304,22 +11304,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08830368884784756</v>
+        <v>0.08815174960500116</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007086115334671428</v>
+        <v>0.007155431287438492</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08808498467700261</v>
+        <v>0.08796412455827336</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007185890005732365</v>
+        <v>0.007241027402262159</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11832,7 +11832,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11869,7 +11869,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08768972221208782</v>
+        <v>0.08760583324948482</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007366212046538641</v>
+        <v>0.007404482892572447</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12147,13 +12147,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08682197525560421</v>
+        <v>0.08678274123183806</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007762085462270866</v>
+        <v>0.007779984351901285</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12422,16 +12422,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08440491824304604</v>
+        <v>0.08439155030686878</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008864767077494734</v>
+        <v>0.00887086564173197</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12669,7 +12669,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12709,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1018210919880862</v>
+        <v>0.1019204392231124</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009193630194106453</v>
+        <v>0.0008740399802694223</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12944,10 +12944,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12981,13 +12981,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07995983999844819</v>
+        <v>0.07990010496447751</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01089264893261157</v>
+        <v>0.01091990055448148</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13256,16 +13256,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07780234753604602</v>
+        <v>0.07785058617734211</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01187691503014852</v>
+        <v>0.01185490815872422</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13500,7 +13500,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -13528,13 +13528,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13543,7 +13543,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07693077251719734</v>
+        <v>0.0771264896298338</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0122745348399335</v>
+        <v>0.01218524705699431</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07608324762034656</v>
+        <v>0.07638722572582046</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01266118278300901</v>
+        <v>0.01252250543009796</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14084,7 +14084,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14099,7 +14099,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07508171743302104</v>
+        <v>0.07544437229509708</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01311808922705135</v>
+        <v>0.0129526430472529</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14334,10 +14334,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07778264530463931</v>
+        <v>0.07817677192404791</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01188590335282282</v>
+        <v>0.01170609949423189</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08335688121842597</v>
+        <v>0.08367192185274901</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009342890329498359</v>
+        <v>0.009199166158445895</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14927,13 +14927,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08726603668538957</v>
+        <v>0.08744251387725219</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007559500925741429</v>
+        <v>0.007478990555501018</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15196,7 +15196,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15211,7 +15211,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08867462641138434</v>
+        <v>0.08876111195197221</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006916890517224941</v>
+        <v>0.006877435090607592</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15474,7 +15474,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15489,7 +15489,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08878017755796548</v>
+        <v>0.08881904890097263</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006868737201768942</v>
+        <v>0.006851003770132733</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15761,7 +15761,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -15918,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1016489206395906</v>
+        <v>0.101760382767764</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009979090279110727</v>
+        <v>0.000947059073238101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16002,7 +16002,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16039,7 +16039,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08864201840844473</v>
+        <v>0.08863553410026249</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006931766560762122</v>
+        <v>0.006934724756362335</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16283,7 +16283,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16308,7 +16308,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16323,7 +16323,7 @@
         <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08853700660235703</v>
+        <v>0.08848428676725843</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006979673824576238</v>
+        <v>0.00700372505407508</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16558,7 +16558,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16586,13 +16586,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08847772093756759</v>
+        <v>0.08838665707772547</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007006720440469025</v>
+        <v>0.007048264534603951</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16836,7 +16836,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16879,7 +16879,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08846751336049644</v>
+        <v>0.08834674053081132</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007011377222462103</v>
+        <v>0.007066474797000235</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17142,7 +17142,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0884782282607446</v>
+        <v>0.08833482763098674</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007006488995394556</v>
+        <v>0.007071909561489583</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17395,7 +17395,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17420,7 +17420,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.088467193421554</v>
+        <v>0.08830942676757747</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007011523181282273</v>
+        <v>0.007083497647722837</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08841250474899774</v>
+        <v>0.08825087097703545</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007036472610888387</v>
+        <v>0.007110211288882355</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17948,7 +17948,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17976,22 +17976,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882992445481648</v>
+        <v>0.08814653678363463</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007088142861340138</v>
+        <v>0.007157809420124002</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18254,7 +18254,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08809871899692739</v>
+        <v>0.08796825471209631</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007179624294166611</v>
+        <v>0.007239143191560897</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18547,7 +18547,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08776880468749801</v>
+        <v>0.0876708603089343</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007330133960143438</v>
+        <v>0.007374817004438871</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18816,16 +18816,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18976,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1014867813172858</v>
+        <v>0.1016092499175191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001071878342197594</v>
+        <v>0.001016007142959067</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19063,7 +19063,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19088,16 +19088,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08723917334344763</v>
+        <v>0.08717947604457672</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007571756206907291</v>
+        <v>0.007598990613709238</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08633055172972413</v>
+        <v>0.08631139061265648</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007986276982976007</v>
+        <v>0.007995018444765242</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19644,7 +19644,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19653,13 +19653,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08476587339315303</v>
+        <v>0.08478875832962696</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00870009632050581</v>
+        <v>0.008689656021173086</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19897,7 +19897,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08281628198997473</v>
+        <v>0.08288704996296686</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009589516216815128</v>
+        <v>0.009557231275930561</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20175,7 +20175,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20200,7 +20200,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20209,13 +20209,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08149462151065542</v>
+        <v>0.08163007535444927</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01019246877628782</v>
+        <v>0.01013067360038306</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20478,7 +20478,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20487,13 +20487,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08110318100132582</v>
+        <v>0.0813057157423793</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01037104720900538</v>
+        <v>0.01027864916698839</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20756,7 +20756,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20765,13 +20765,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08137465122196411</v>
+        <v>0.0816255556525969</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0102472002249155</v>
+        <v>0.01013273552615188</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21040,7 +21040,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21049,7 +21049,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08237444010764255</v>
+        <v>0.0826383888191832</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009791088177241471</v>
+        <v>0.009670672568480206</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21312,13 +21312,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21327,7 +21327,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08419364551300451</v>
+        <v>0.08442222082026209</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008961151463135836</v>
+        <v>0.008856873497122818</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21596,16 +21596,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08623224266210121</v>
+        <v>0.0863891744158569</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008031126401468991</v>
+        <v>0.007959532823488749</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21815,7 +21815,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21840,7 +21840,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21868,13 +21868,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21883,7 +21883,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22034,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013347559368562</v>
+        <v>0.101466995423156</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001141233591650181</v>
+        <v>0.001080904832505563</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22118,7 +22118,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22152,7 +22152,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22161,7 +22161,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08767468981527915</v>
+        <v>0.08776057449298873</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007373069951630481</v>
+        <v>0.007333888643681293</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22399,7 +22399,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22424,22 +22424,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08831822168289914</v>
+        <v>0.08835379947779862</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007079485333829428</v>
+        <v>0.007063254446373303</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08847124732354616</v>
+        <v>0.08846975827832589</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007009673757303673</v>
+        <v>0.007010353072181261</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22952,7 +22952,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22992,10 +22992,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08845672262862929</v>
+        <v>0.08842115399455505</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007016300044548177</v>
+        <v>0.00703252675275924</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23230,7 +23230,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23258,13 +23258,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08842296974889466</v>
+        <v>0.08835498894811843</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007031698390450183</v>
+        <v>0.007062711800069683</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23483,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08840180616068943</v>
+        <v>0.0883058719608599</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007041353396312612</v>
+        <v>0.007085119380264846</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23820,16 +23820,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08839130128260564</v>
+        <v>0.08827343602891585</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007046145809513039</v>
+        <v>0.007099916923575375</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24064,10 +24064,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08837695117683297</v>
+        <v>0.08824380004143213</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007052692447730434</v>
+        <v>0.007113437108816152</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24370,13 +24370,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24385,7 +24385,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08833625961838958</v>
+        <v>0.08819577505651009</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007071256276865289</v>
+        <v>0.007135346508416482</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24623,7 +24623,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24663,7 +24663,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882474431352941</v>
+        <v>0.08810917785726959</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007111775098940808</v>
+        <v>0.007174852874644609</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -25092,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011911929132764</v>
+        <v>0.1013319673892376</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001206728243164345</v>
+        <v>0.001142505750385479</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08808871374397395</v>
+        <v>0.08796315343466235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007184188774205811</v>
+        <v>0.007241470436971886</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25491,7 +25491,7 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>

--- a/Recycling/SG2/SG2_Avg.xlsx
+++ b/Recycling/SG2/SG2_Avg.xlsx
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1026206510008529</v>
+        <v>0.1140229455565032</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005545975136390913</v>
+        <v>0.0006162194595989904</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011984851356063</v>
+        <v>0.1124427612617847</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001203401470376</v>
+        <v>0.001337112744862222</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010499656595435</v>
+        <v>0.112277739621715</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001271157296947818</v>
+        <v>0.001412396996608687</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1008408631272178</v>
+        <v>0.1120454034746864</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001366551620248575</v>
+        <v>0.001518390689165083</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1580,16 +1580,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1004531575413212</v>
+        <v>0.1116146194903569</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001543426149672816</v>
+        <v>0.001714917944080907</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -1867,7 +1867,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09963243218910818</v>
+        <v>0.1107027024323424</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001917847916445935</v>
+        <v>0.002130942129384372</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2139,13 +2139,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09833447830615524</v>
+        <v>0.1092605314512836</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002509985328474072</v>
+        <v>0.002788872587193413</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0984209214118492</v>
+        <v>0.1093565793464991</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002470549261010065</v>
+        <v>0.002745054734455628</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2701,7 +2701,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1007235872048714</v>
+        <v>0.1119150968943016</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001420053876425347</v>
+        <v>0.001577837640472608</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2973,13 +2973,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1014497143543703</v>
+        <v>0.1127219048381892</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001088788600551759</v>
+        <v>0.001209765111724177</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3214,10 +3214,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1001651230676557</v>
+        <v>0.1112945811862842</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001674829884467391</v>
+        <v>0.001860922093852656</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1024417751394775</v>
+        <v>0.1138241945994194</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006362021769636386</v>
+        <v>0.000706891307737376</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09878646669928498</v>
+        <v>0.1097627407769833</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002303784444999155</v>
+        <v>0.002559760494443506</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4085,13 +4085,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09714590045657018</v>
+        <v>0.1079398893961891</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003052224479718843</v>
+        <v>0.003391360533020936</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09547177607745104</v>
+        <v>0.1060797511971678</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003815974016805235</v>
+        <v>0.004239971129783595</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4604,10 +4604,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4647,7 +4647,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09416521403259515</v>
+        <v>0.1046280155917724</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004412038544255945</v>
+        <v>0.004902265049173272</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09232966265540747</v>
+        <v>0.1025885140615639</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005249432427357397</v>
+        <v>0.005832702697063774</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -5203,7 +5203,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08703963416571547</v>
+        <v>0.09671070462857274</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007662787647894819</v>
+        <v>0.00851420849766091</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07926888827324471</v>
+        <v>0.08807654252582744</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01120786688586237</v>
+        <v>0.01245318542873597</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5716,10 +5716,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07277032040815191</v>
+        <v>0.08085591156461323</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01417256787259591</v>
+        <v>0.01574729763621768</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5994,10 +5994,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6031,13 +6031,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06782851952037154</v>
+        <v>0.0753650216893017</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01642705875003079</v>
+        <v>0.0182522875000342</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6272,10 +6272,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06825579529848254</v>
+        <v>0.07583977255386948</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01623213196811975</v>
+        <v>0.01803570218679973</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6550,10 +6550,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -6593,7 +6593,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1022632033089255</v>
+        <v>0.1136257814543617</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007176681388848702</v>
+        <v>0.0007974090432054113</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06918691324379804</v>
+        <v>0.0768743480486645</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01580734817751409</v>
+        <v>0.01756372019723788</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7106,10 +7106,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7149,7 +7149,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06778976205501927</v>
+        <v>0.0753219578389103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01644474022972884</v>
+        <v>0.01827193358858761</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7384,10 +7384,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7421,7 +7421,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07117482521273948</v>
+        <v>0.0790831391252661</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01490044611875165</v>
+        <v>0.01655605124305739</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7662,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7705,7 +7705,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07844455228833928</v>
+        <v>0.08716061365371031</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01158393585345393</v>
+        <v>0.01287103983717103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08678165312926595</v>
+        <v>0.09642405903251772</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007780480753390998</v>
+        <v>0.008644978614878887</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08947904538289758</v>
+        <v>0.09942116153655285</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006549907857645003</v>
+        <v>0.007277675397383336</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8496,10 +8496,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8530,16 +8530,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08906334138327136</v>
+        <v>0.09895926820363485</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00673955549747361</v>
+        <v>0.0074883949971929</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8811,13 +8811,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08882940445806178</v>
+        <v>0.09869933828673531</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006846279478418345</v>
+        <v>0.007606977198242606</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9052,10 +9052,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08859134402528282</v>
+        <v>0.09843482669475868</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006954884637987909</v>
+        <v>0.007727649597764343</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9370,10 +9370,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08837693119149771</v>
+        <v>0.09819659021277524</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007052701565207456</v>
+        <v>0.007836335072452729</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9608,10 +9608,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9645,10 +9645,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1020885840772291</v>
+        <v>0.1134317600858102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007973308921652816</v>
+        <v>0.0008859232135169795</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -9929,7 +9929,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08833614601566407</v>
+        <v>0.09815127335073785</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007071308103378357</v>
+        <v>0.00785700900375373</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10164,10 +10164,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10204,10 +10204,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08836280870988962</v>
+        <v>0.09818089856654402</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007059144359378078</v>
+        <v>0.00784349373264231</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10485,7 +10485,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08835243586005649</v>
+        <v>0.09816937317784054</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007063876540186821</v>
+        <v>0.007848751711318689</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10720,10 +10720,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10763,7 +10763,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08831472925553815</v>
+        <v>0.09812747695059795</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007081078608387466</v>
+        <v>0.007867865120430516</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08825680971327327</v>
+        <v>0.09806312190363696</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007107501987764058</v>
+        <v>0.007897224430848953</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11276,10 +11276,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11313,13 +11313,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08815174960500116</v>
+        <v>0.09794638845000128</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007155431287438492</v>
+        <v>0.00795047920826499</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11554,10 +11554,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11588,7 +11588,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08796412455827336</v>
+        <v>0.09773791617585929</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007241027402262159</v>
+        <v>0.008045586002513509</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11832,10 +11832,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08760583324948482</v>
+        <v>0.09733981472164978</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007404482892572447</v>
+        <v>0.008227203213969386</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12110,10 +12110,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12150,10 +12150,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08678274123183806</v>
+        <v>0.09642526803537561</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007779984351901285</v>
+        <v>0.008644427057668094</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12388,10 +12388,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12425,13 +12425,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08439155030686878</v>
+        <v>0.09376838922985418</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00887086564173197</v>
+        <v>0.00985651737970219</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12666,10 +12666,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12709,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1019204392231124</v>
+        <v>0.1132449324701249</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008740399802694223</v>
+        <v>0.0009711555336326913</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12944,10 +12944,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12981,13 +12981,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07990010496447751</v>
+        <v>0.08877789440497502</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01091990055448148</v>
+        <v>0.01213322283831275</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13222,10 +13222,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13259,13 +13259,13 @@
         <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07785058617734211</v>
+        <v>0.0865006513081579</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01185490815872422</v>
+        <v>0.01317212017636024</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13500,10 +13500,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13543,7 +13543,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0771264896298338</v>
+        <v>0.08569609958870422</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01218524705699431</v>
+        <v>0.01353916339666034</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13778,10 +13778,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13818,7 +13818,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07638722572582046</v>
+        <v>0.08487469525091161</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01252250543009796</v>
+        <v>0.01391389492233106</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14093,13 +14093,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07544437229509708</v>
+        <v>0.08382708032788565</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0129526430472529</v>
+        <v>0.01439182560805877</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14334,10 +14334,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07817677192404791</v>
+        <v>0.08686307991560879</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01170609949423189</v>
+        <v>0.01300677721581322</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14612,10 +14612,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14646,7 +14646,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -14655,7 +14655,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08367192185274901</v>
+        <v>0.09296880205861</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009199166158445895</v>
+        <v>0.01022129573160655</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14890,10 +14890,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08744251387725219</v>
+        <v>0.09715834875250243</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007478990555501018</v>
+        <v>0.008309989506112243</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15168,10 +15168,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15211,7 +15211,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08876111195197221</v>
+        <v>0.09862345772441355</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006877435090607592</v>
+        <v>0.007641594545119547</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15446,10 +15446,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15489,7 +15489,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08881904890097263</v>
+        <v>0.09868783211219179</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006851003770132733</v>
+        <v>0.007612226411258592</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15724,10 +15724,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766591</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15764,7 +15764,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -15918,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101760382767764</v>
+        <v>0.1130670919641822</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000947059073238101</v>
+        <v>0.001052287859153445</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16002,10 +16002,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16045,7 +16045,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08863553410026249</v>
+        <v>0.09848392677806943</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006934724756362335</v>
+        <v>0.007705249729291484</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16280,10 +16280,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08848428676725843</v>
+        <v>0.0983158741858427</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00700372505407508</v>
+        <v>0.007781916726750089</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16558,10 +16558,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766591</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16592,7 +16592,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -16601,7 +16601,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08838665707772547</v>
+        <v>0.09820739675302832</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007048264534603951</v>
+        <v>0.007831405038448834</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16836,10 +16836,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16870,7 +16870,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -16879,7 +16879,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08834674053081132</v>
+        <v>0.0981630450342348</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007066474797000235</v>
+        <v>0.007851638663333594</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17114,10 +17114,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17154,10 +17154,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08833482763098674</v>
+        <v>0.09814980847887415</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007071909561489583</v>
+        <v>0.007857677290543978</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17392,10 +17392,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17426,7 +17426,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08830942676757747</v>
+        <v>0.09812158529730829</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007083497647722837</v>
+        <v>0.007870552941914263</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17670,10 +17670,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17704,7 +17704,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08825087097703545</v>
+        <v>0.09805652330781717</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007110211288882355</v>
+        <v>0.007900234765424839</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17948,10 +17948,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17982,16 +17982,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08814653678363463</v>
+        <v>0.0979405964262607</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007157809420124002</v>
+        <v>0.007953121577915558</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18226,10 +18226,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18269,7 +18269,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08796825471209631</v>
+        <v>0.09774250523566255</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007239143191560897</v>
+        <v>0.008043492435067662</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18504,10 +18504,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18541,13 +18541,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0876708603089343</v>
+        <v>0.09741206700992701</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007374817004438871</v>
+        <v>0.00819424111604319</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18782,10 +18782,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18816,10 +18816,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -18976,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1016092499175191</v>
+        <v>0.1128991665750212</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001016007142959067</v>
+        <v>0.001128896825510074</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19060,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19094,13 +19094,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08717947604457672</v>
+        <v>0.09686608449397413</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007598990613709238</v>
+        <v>0.008443322904121376</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19338,10 +19338,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08631139061265648</v>
+        <v>0.09590154512517386</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007995018444765242</v>
+        <v>0.008883353827516935</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19616,10 +19616,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19653,13 +19653,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08478875832962696</v>
+        <v>0.09420973147736328</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008689656021173086</v>
+        <v>0.009655173356858985</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19894,10 +19894,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19928,13 +19928,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08288704996296686</v>
+        <v>0.0920967221810743</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009557231275930561</v>
+        <v>0.01061914586214507</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20172,10 +20172,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08163007535444927</v>
+        <v>0.09070008372716584</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01013067360038306</v>
+        <v>0.01125630400042562</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20450,10 +20450,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20484,10 +20484,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0813057157423793</v>
+        <v>0.09033968415819921</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01027864916698839</v>
+        <v>0.01142072129665377</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20728,10 +20728,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20771,7 +20771,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0816255556525969</v>
+        <v>0.09069506183621875</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01013273552615188</v>
+        <v>0.01125859502905764</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21006,10 +21006,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21040,16 +21040,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0826383888191832</v>
+        <v>0.09182043202131465</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009670672568480206</v>
+        <v>0.01074519174275578</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21284,10 +21284,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21318,7 +21318,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08442222082026209</v>
+        <v>0.09380246757806898</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008856873497122818</v>
+        <v>0.009840970552358688</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21562,10 +21562,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21596,10 +21596,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0863891744158569</v>
+        <v>0.09598797157317433</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007959532823488749</v>
+        <v>0.008843925359431945</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21815,7 +21815,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21840,10 +21840,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21877,13 +21877,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22034,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101466995423156</v>
+        <v>0.1127411060257289</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001080904832505563</v>
+        <v>0.001201005369450625</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22118,10 +22118,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22152,7 +22152,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08776057449298873</v>
+        <v>0.09751174943665415</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007333888643681293</v>
+        <v>0.00814876515964588</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22396,10 +22396,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766587</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22430,10 +22430,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08835379947779862</v>
+        <v>0.09817088830866512</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007063254446373303</v>
+        <v>0.007848060495970336</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22674,10 +22674,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08846975827832589</v>
+        <v>0.09829973142036211</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007010353072181261</v>
+        <v>0.007789281191312513</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22952,10 +22952,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22992,10 +22992,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08842115399455505</v>
+        <v>0.09824572666061672</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00703252675275924</v>
+        <v>0.007813918614176935</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23230,10 +23230,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08835498894811843</v>
+        <v>0.0981722099423538</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007062711800069683</v>
+        <v>0.007847457555632981</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23483,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23508,10 +23508,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999997</v>
@@ -23551,7 +23551,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0883058719608599</v>
+        <v>0.09811763551206655</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007085119380264846</v>
+        <v>0.007872354866960939</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23820,16 +23820,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08827343602891585</v>
+        <v>0.09808159558768427</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007099916923575375</v>
+        <v>0.007888796581750417</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24064,10 +24064,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08824380004143213</v>
+        <v>0.09804866671270235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007113437108816152</v>
+        <v>0.007903819009795723</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24342,10 +24342,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24385,7 +24385,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08819577505651009</v>
+        <v>0.09799530561834455</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007135346508416482</v>
+        <v>0.007928162787129425</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24620,10 +24620,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08810917785726959</v>
+        <v>0.09789908650807733</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007174852874644609</v>
+        <v>0.007972058749605122</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24941,7 +24941,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013319673892376</v>
+        <v>0.1125910748769306</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001142505750385479</v>
+        <v>0.001269450833761644</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25176,10 +25176,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08796315343466235</v>
+        <v>0.09773683714962483</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007241470436971886</v>
+        <v>0.008046078263302094</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
